--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Selplg-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Selplg-Selp.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H2">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I2">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J2">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N2">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O2">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P2">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q2">
-        <v>45.06971650159001</v>
+        <v>100.9682404498447</v>
       </c>
       <c r="R2">
-        <v>405.6274485143101</v>
+        <v>908.714164048602</v>
       </c>
       <c r="S2">
-        <v>0.003578351812818677</v>
+        <v>0.005949990252338454</v>
       </c>
       <c r="T2">
-        <v>0.003578351812818677</v>
+        <v>0.005949990252338454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H3">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I3">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J3">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N3">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O3">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P3">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q3">
-        <v>0.6751939090933334</v>
+        <v>2.55708167089</v>
       </c>
       <c r="R3">
-        <v>6.076745181840001</v>
+        <v>23.01373503801</v>
       </c>
       <c r="S3">
-        <v>5.360764469248483E-05</v>
+        <v>0.000150687096738965</v>
       </c>
       <c r="T3">
-        <v>5.360764469248485E-05</v>
+        <v>0.0001506870967389651</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H4">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I4">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J4">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N4">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O4">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P4">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q4">
-        <v>0.1536017038693334</v>
+        <v>0.6069204078479999</v>
       </c>
       <c r="R4">
-        <v>1.382415334824</v>
+        <v>5.462283670632</v>
       </c>
       <c r="S4">
-        <v>1.219534929787002E-05</v>
+        <v>3.57654099403139E-05</v>
       </c>
       <c r="T4">
-        <v>1.219534929787002E-05</v>
+        <v>3.576540994031389E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H5">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I5">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J5">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N5">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O5">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P5">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q5">
-        <v>19.81954661670867</v>
+        <v>40.55146890746366</v>
       </c>
       <c r="R5">
-        <v>178.375919550378</v>
+        <v>364.9632201671729</v>
       </c>
       <c r="S5">
-        <v>0.001573591228661084</v>
+        <v>0.002389670688945692</v>
       </c>
       <c r="T5">
-        <v>0.001573591228661084</v>
+        <v>0.002389670688945693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H6">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I6">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J6">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N6">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O6">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P6">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q6">
-        <v>0.279761112186</v>
+        <v>0.2285800116376666</v>
       </c>
       <c r="R6">
-        <v>2.517850009674</v>
+        <v>2.057220104739</v>
       </c>
       <c r="S6">
-        <v>2.221189216736309E-05</v>
+        <v>1.347006578567765E-05</v>
       </c>
       <c r="T6">
-        <v>2.221189216736309E-05</v>
+        <v>1.347006578567765E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>3.967564</v>
       </c>
       <c r="I7">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J7">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N7">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O7">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P7">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q7">
-        <v>27.91863033747334</v>
+        <v>35.97537784012711</v>
       </c>
       <c r="R7">
-        <v>251.26767303726</v>
+        <v>323.778400561144</v>
       </c>
       <c r="S7">
-        <v>0.002216625469032799</v>
+        <v>0.002120004731381633</v>
       </c>
       <c r="T7">
-        <v>0.002216625469032799</v>
+        <v>0.002120004731381633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>3.967564</v>
       </c>
       <c r="I8">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J8">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N8">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O8">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P8">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q8">
-        <v>0.4182517800711111</v>
+        <v>0.9110981717466666</v>
       </c>
       <c r="R8">
-        <v>3.76426602064</v>
+        <v>8.199883545720001</v>
       </c>
       <c r="S8">
-        <v>3.320748679169745E-05</v>
+        <v>5.36904002353979E-05</v>
       </c>
       <c r="T8">
-        <v>3.320748679169745E-05</v>
+        <v>5.369040023539791E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>3.967564</v>
       </c>
       <c r="I9">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J9">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N9">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O9">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P9">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q9">
-        <v>0.09514923816711111</v>
+        <v>0.216248108256</v>
       </c>
       <c r="R9">
-        <v>0.8563431435040001</v>
+        <v>1.946232974304</v>
       </c>
       <c r="S9">
-        <v>7.554461738661843E-06</v>
+        <v>1.274335504389598E-05</v>
       </c>
       <c r="T9">
-        <v>7.554461738661845E-06</v>
+        <v>1.274335504389598E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.967564</v>
       </c>
       <c r="I10">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J10">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N10">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O10">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P10">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q10">
-        <v>12.27730366195422</v>
+        <v>14.44864651912844</v>
       </c>
       <c r="R10">
-        <v>110.495732957588</v>
+        <v>130.037818672156</v>
       </c>
       <c r="S10">
-        <v>0.0009747678757582018</v>
+        <v>0.0008514489859908259</v>
       </c>
       <c r="T10">
-        <v>0.0009747678757582018</v>
+        <v>0.0008514489859908261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.967564</v>
       </c>
       <c r="I11">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J11">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N11">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O11">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P11">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q11">
-        <v>0.173299227956</v>
+        <v>0.08144394958977777</v>
       </c>
       <c r="R11">
-        <v>1.559693051604</v>
+        <v>0.7329955463079999</v>
       </c>
       <c r="S11">
-        <v>1.375925243493715E-05</v>
+        <v>4.79943697158751E-06</v>
       </c>
       <c r="T11">
-        <v>1.375925243493716E-05</v>
+        <v>4.799436971587511E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H12">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I12">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J12">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N12">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O12">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P12">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q12">
-        <v>1708.429363369667</v>
+        <v>2228.849940373185</v>
       </c>
       <c r="R12">
-        <v>15375.864270327</v>
+        <v>20059.64946335867</v>
       </c>
       <c r="S12">
-        <v>0.135642328907723</v>
+        <v>0.1313446224284083</v>
       </c>
       <c r="T12">
-        <v>0.135642328907723</v>
+        <v>0.1313446224284084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H13">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I13">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J13">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N13">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O13">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P13">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q13">
-        <v>25.59415034755555</v>
+        <v>56.44697089203667</v>
       </c>
       <c r="R13">
-        <v>230.347353128</v>
+        <v>508.02273802833</v>
       </c>
       <c r="S13">
-        <v>0.002032071231033773</v>
+        <v>0.003326381890833151</v>
       </c>
       <c r="T13">
-        <v>0.002032071231033774</v>
+        <v>0.003326381890833152</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H14">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I14">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J14">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N14">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O14">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P14">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q14">
-        <v>5.822483066755555</v>
+        <v>13.397623934184</v>
       </c>
       <c r="R14">
-        <v>52.4023476008</v>
+        <v>120.578615407656</v>
       </c>
       <c r="S14">
-        <v>0.0004622814265160898</v>
+        <v>0.00078951293453994</v>
       </c>
       <c r="T14">
-        <v>0.00046228142651609</v>
+        <v>0.0007895129345399401</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H15">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I15">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J15">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N15">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O15">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P15">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q15">
-        <v>751.2870733825112</v>
+        <v>895.1640501385452</v>
       </c>
       <c r="R15">
-        <v>6761.5836604426</v>
+        <v>8056.476451246908</v>
       </c>
       <c r="S15">
-        <v>0.05964913182648273</v>
+        <v>0.05275141320516443</v>
       </c>
       <c r="T15">
-        <v>0.05964913182648274</v>
+        <v>0.05275141320516445</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H16">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I16">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J16">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N16">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O16">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P16">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q16">
-        <v>10.6047283162</v>
+        <v>5.045849497220777</v>
       </c>
       <c r="R16">
-        <v>95.4425548458</v>
+        <v>45.412645474987</v>
       </c>
       <c r="S16">
-        <v>0.0008419722097294547</v>
+        <v>0.000297348504732477</v>
       </c>
       <c r="T16">
-        <v>0.000841972209729455</v>
+        <v>0.000297348504732477</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7373666666666666</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H17">
-        <v>2.2121</v>
+        <v>1.256305</v>
       </c>
       <c r="I17">
-        <v>0.001809747131153398</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J17">
-        <v>0.001809747131153399</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N17">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O17">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P17">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q17">
-        <v>15.56592462516667</v>
+        <v>11.39138450128111</v>
       </c>
       <c r="R17">
-        <v>140.0933216265</v>
+        <v>102.52246051153</v>
       </c>
       <c r="S17">
-        <v>0.001235870977770605</v>
+        <v>0.0006712865990462669</v>
       </c>
       <c r="T17">
-        <v>0.001235870977770605</v>
+        <v>0.0006712865990462669</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7373666666666666</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H18">
-        <v>2.2121</v>
+        <v>1.256305</v>
       </c>
       <c r="I18">
-        <v>0.001809747131153398</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J18">
-        <v>0.001809747131153399</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N18">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O18">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P18">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q18">
-        <v>0.2331946662222222</v>
+        <v>0.2884936925166667</v>
       </c>
       <c r="R18">
-        <v>2.098751996</v>
+        <v>2.59644323265</v>
       </c>
       <c r="S18">
-        <v>1.851470613502741E-05</v>
+        <v>1.700073855588254E-05</v>
       </c>
       <c r="T18">
-        <v>1.851470613502742E-05</v>
+        <v>1.700073855588255E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7373666666666666</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H19">
-        <v>2.2121</v>
+        <v>1.256305</v>
       </c>
       <c r="I19">
-        <v>0.001809747131153398</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J19">
-        <v>0.001809747131153399</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N19">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O19">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P19">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q19">
-        <v>0.05305009062222222</v>
+        <v>0.06847364772</v>
       </c>
       <c r="R19">
-        <v>0.4774508156</v>
+        <v>0.61626282948</v>
       </c>
       <c r="S19">
-        <v>4.211960994729728E-06</v>
+        <v>4.035105837844517E-06</v>
       </c>
       <c r="T19">
-        <v>4.21196099472973E-06</v>
+        <v>4.035105837844517E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7373666666666666</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H20">
-        <v>2.2121</v>
+        <v>1.256305</v>
       </c>
       <c r="I20">
-        <v>0.001809747131153398</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J20">
-        <v>0.001809747131153399</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N20">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O20">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P20">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q20">
-        <v>6.845163286744445</v>
+        <v>4.575076007649444</v>
       </c>
       <c r="R20">
-        <v>61.6064695807</v>
+        <v>41.17568406884499</v>
       </c>
       <c r="S20">
-        <v>0.0005434780681457735</v>
+        <v>0.0002696061407819016</v>
       </c>
       <c r="T20">
-        <v>0.0005434780681457737</v>
+        <v>0.0002696061407819017</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7373666666666666</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H21">
-        <v>2.2121</v>
+        <v>1.256305</v>
       </c>
       <c r="I21">
-        <v>0.001809747131153398</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J21">
-        <v>0.001809747131153399</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N21">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O21">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P21">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q21">
-        <v>0.09662231589999998</v>
+        <v>0.02578873109277778</v>
       </c>
       <c r="R21">
-        <v>0.8696008431</v>
+        <v>0.232098579835</v>
       </c>
       <c r="S21">
-        <v>7.671418107262913E-06</v>
+        <v>1.519712514931139E-06</v>
       </c>
       <c r="T21">
-        <v>7.671418107262916E-06</v>
+        <v>1.519712514931139E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>220.1281486666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H22">
-        <v>660.384446</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I22">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J22">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N22">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O22">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P22">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q22">
-        <v>4646.939338216377</v>
+        <v>7514.842536109963</v>
       </c>
       <c r="R22">
-        <v>41822.45404394739</v>
+        <v>67633.58282498967</v>
       </c>
       <c r="S22">
-        <v>0.3689480452884225</v>
+        <v>0.4428445978507833</v>
       </c>
       <c r="T22">
-        <v>0.3689480452884225</v>
+        <v>0.4428445978507833</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>220.1281486666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H23">
-        <v>660.384446</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I23">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J23">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N23">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O23">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P23">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q23">
-        <v>69.61626077632889</v>
+        <v>190.31792594481</v>
       </c>
       <c r="R23">
-        <v>626.5463469869601</v>
+        <v>1712.86133350329</v>
       </c>
       <c r="S23">
-        <v>0.005527247391091217</v>
+        <v>0.01121530690414872</v>
       </c>
       <c r="T23">
-        <v>0.005527247391091218</v>
+        <v>0.01121530690414872</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>220.1281486666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H24">
-        <v>660.384446</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I24">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J24">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N24">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O24">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P24">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q24">
-        <v>15.83719303187289</v>
+        <v>45.171741892392</v>
       </c>
       <c r="R24">
-        <v>142.534737286856</v>
+        <v>406.545677031528</v>
       </c>
       <c r="S24">
-        <v>0.001257408583734099</v>
+        <v>0.002661940257088975</v>
       </c>
       <c r="T24">
-        <v>0.001257408583734099</v>
+        <v>0.002661940257088975</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>220.1281486666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H25">
-        <v>660.384446</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I25">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J25">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N25">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O25">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P25">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q25">
-        <v>2043.505883502676</v>
+        <v>3018.156026982813</v>
       </c>
       <c r="R25">
-        <v>18391.55295152408</v>
+        <v>27163.40424284532</v>
       </c>
       <c r="S25">
-        <v>0.1622460390333154</v>
+        <v>0.1778578973009321</v>
       </c>
       <c r="T25">
-        <v>0.1622460390333154</v>
+        <v>0.1778578973009321</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>220.1281486666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H26">
-        <v>660.384446</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I26">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J26">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N26">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O26">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P26">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q26">
-        <v>28.844932216834</v>
+        <v>17.012704061259</v>
       </c>
       <c r="R26">
-        <v>259.604389951506</v>
+        <v>153.114336551331</v>
       </c>
       <c r="S26">
-        <v>0.002290170063197499</v>
+        <v>0.001002547166113021</v>
       </c>
       <c r="T26">
-        <v>0.0022901700631975</v>
+        <v>0.001002547166113021</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>102.1895396666667</v>
+        <v>71.006541</v>
       </c>
       <c r="H27">
-        <v>306.568619</v>
+        <v>213.019623</v>
       </c>
       <c r="I27">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="J27">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N27">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O27">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P27">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q27">
-        <v>2157.237021741982</v>
+        <v>1931.528117703062</v>
       </c>
       <c r="R27">
-        <v>19415.13319567784</v>
+        <v>17383.75305932756</v>
       </c>
       <c r="S27">
-        <v>0.1712758279089165</v>
+        <v>0.1138236481219035</v>
       </c>
       <c r="T27">
-        <v>0.1712758279089165</v>
+        <v>0.1138236481219035</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>102.1895396666667</v>
+        <v>71.006541</v>
       </c>
       <c r="H28">
-        <v>306.568619</v>
+        <v>213.019623</v>
       </c>
       <c r="I28">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="J28">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N28">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O28">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P28">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q28">
-        <v>32.31778255138222</v>
+        <v>48.91711616031</v>
       </c>
       <c r="R28">
-        <v>290.86004296244</v>
+        <v>440.25404544279</v>
       </c>
       <c r="S28">
-        <v>0.002565900226484419</v>
+        <v>0.002882652634428474</v>
       </c>
       <c r="T28">
-        <v>0.00256590022648442</v>
+        <v>0.002882652634428474</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>102.1895396666667</v>
+        <v>71.006541</v>
       </c>
       <c r="H29">
-        <v>306.568619</v>
+        <v>213.019623</v>
       </c>
       <c r="I29">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="J29">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N29">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O29">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P29">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q29">
-        <v>7.352060494498223</v>
+        <v>11.610421531992</v>
       </c>
       <c r="R29">
-        <v>66.16854445048401</v>
+        <v>104.493793787928</v>
       </c>
       <c r="S29">
-        <v>0.0005837236406293384</v>
+        <v>0.0006841943034078015</v>
       </c>
       <c r="T29">
-        <v>0.0005837236406293385</v>
+        <v>0.0006841943034078015</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>102.1895396666667</v>
+        <v>71.006541</v>
       </c>
       <c r="H30">
-        <v>306.568619</v>
+        <v>213.019623</v>
       </c>
       <c r="I30">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="J30">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N30">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O30">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P30">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q30">
-        <v>948.6516231846416</v>
+        <v>775.7518805909629</v>
       </c>
       <c r="R30">
-        <v>8537.864608661774</v>
+        <v>6981.766925318666</v>
       </c>
       <c r="S30">
-        <v>0.07531907274003785</v>
+        <v>0.04571453466144416</v>
       </c>
       <c r="T30">
-        <v>0.07531907274003785</v>
+        <v>0.04571453466144417</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>102.1895396666667</v>
+        <v>71.006541</v>
       </c>
       <c r="H31">
-        <v>306.568619</v>
+        <v>213.019623</v>
       </c>
       <c r="I31">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="J31">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N31">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O31">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P31">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q31">
-        <v>13.390610709301</v>
+        <v>4.372748476709</v>
       </c>
       <c r="R31">
-        <v>120.515496383709</v>
+        <v>39.354736290381</v>
       </c>
       <c r="S31">
-        <v>0.001063159918138957</v>
+        <v>0.0002576831159622966</v>
       </c>
       <c r="T31">
-        <v>0.001063159918138957</v>
+        <v>0.0002576831159622966</v>
       </c>
     </row>
   </sheetData>
